--- a/biology/Zoologie/Fou_des_oiseaux/Fou_des_oiseaux.xlsx
+++ b/biology/Zoologie/Fou_des_oiseaux/Fou_des_oiseaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fou des oiseaux est une émission de télévision documentaire canadienne animée par Pierre Verville[1] et diffusée depuis le 15 septembre 2017 sur Unis et rediffusée depuis 2019 sur TV5 Québec Canada depuis 2019[2] et aussi disponible sur la plateforme de vidéo à la demande ICI TOU.TV.
-Il s'agit d'une émission sur le monde de l'ornithologie et sur les oiseaux que l'on retrouve au Canada[3].
+Fou des oiseaux est une émission de télévision documentaire canadienne animée par Pierre Verville et diffusée depuis le 15 septembre 2017 sur Unis et rediffusée depuis 2019 sur TV5 Québec Canada depuis 2019 et aussi disponible sur la plateforme de vidéo à la demande ICI TOU.TV.
+Il s'agit d'une émission sur le monde de l'ornithologie et sur les oiseaux que l'on retrouve au Canada.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'humoriste, imitateur et animateur Pierre Verville part à la recherche des plus beaux spécimens d'oiseaux à travers les différentes régions du Canada[4]. En compagnie d'ornithologues locaux, il découvre les habitats des différentes espèces d'oiseaux canadiens des plus communs aux plus rares, et les observe avec fascination[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'humoriste, imitateur et animateur Pierre Verville part à la recherche des plus beaux spécimens d'oiseaux à travers les différentes régions du Canada. En compagnie d'ornithologues locaux, il découvre les habitats des différentes espèces d'oiseaux canadiens des plus communs aux plus rares, et les observe avec fascination.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les intervenants suivants ont contribué à la production de l'émission[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les intervenants suivants ont contribué à la production de l'émission :
 Animateur : Pierre Verville
 Production : Production des Années lumière
 Productrice : Geneviève Lavoie
